--- a/src/MangaVolumes.xlsx
+++ b/src/MangaVolumes.xlsx
@@ -409,10 +409,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -745,6 +745,8 @@
         <v>258</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/src/MangaVolumes.xlsx
+++ b/src/MangaVolumes.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="My Hero Academia" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Onepunch Man" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Bleach" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t xml:space="preserve">currentVol</t>
   </si>
@@ -411,8 +412,8 @@
   </sheetPr>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1028,4 +1029,918 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">C2+1</f>
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">C3+1</f>
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <f aca="false">C4+1</f>
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">C5+1</f>
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">C6+1</f>
+        <v>44</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <f aca="false">C7+1</f>
+        <v>53</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">C8+1</f>
+        <v>62</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">C9+1</f>
+        <v>71</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">C10+1</f>
+        <v>80</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">C17+1</f>
+        <v>140</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">C18+1</f>
+        <v>150</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">C19+1</f>
+        <v>159</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">C21+1</f>
+        <v>179</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">C22+1</f>
+        <v>188</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">C23+1</f>
+        <v>198</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>205.6</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">C25+1</f>
+        <v>215</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">C26+1</f>
+        <v>224</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">C27+1</f>
+        <v>234</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">C28+1</f>
+        <v>243</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">C29+1</f>
+        <v>252</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">C30+1</f>
+        <v>261</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">C31+1</f>
+        <v>270</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">C32+1</f>
+        <v>279</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>286.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <f aca="false">C34+1</f>
+        <v>296</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <f aca="false">C35+1</f>
+        <v>306</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>315.7</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>315.8</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <f aca="false">C38+1</f>
+        <v>323</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <f aca="false">C39+1</f>
+        <v>332</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <f aca="false">C40+1</f>
+        <v>341</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <f aca="false">C41+1</f>
+        <v>350</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <f aca="false">C42+1</f>
+        <v>359</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <f aca="false">C43+1</f>
+        <v>368</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <f aca="false">C44+1</f>
+        <v>378</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <f aca="false">C45+1</f>
+        <v>387</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <f aca="false">C46+1</f>
+        <v>396</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <f aca="false">C47+1</f>
+        <v>405</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <f aca="false">C48+1</f>
+        <v>414</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <f aca="false">C49+1</f>
+        <v>424</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <f aca="false">C50+1</f>
+        <v>433</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <f aca="false">C51+1</f>
+        <v>442</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <f aca="false">C52+1</f>
+        <v>451</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <f aca="false">C53+1</f>
+        <v>460</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <f aca="false">C54+1</f>
+        <v>470</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <f aca="false">C55+1</f>
+        <v>480</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <f aca="false">C56+1</f>
+        <v>490</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <f aca="false">C57+1</f>
+        <v>500</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <f aca="false">C58+1</f>
+        <v>510</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <f aca="false">C59+1</f>
+        <v>521</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <f aca="false">C60+1</f>
+        <v>531</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <f aca="false">C61+1</f>
+        <v>541</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <f aca="false">C62+1</f>
+        <v>551</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <f aca="false">C63+1</f>
+        <v>561</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <f aca="false">C64+1</f>
+        <v>571</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <f aca="false">C65+1</f>
+        <v>581</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <f aca="false">C66+1</f>
+        <v>592</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <f aca="false">C67+1</f>
+        <v>602</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <f aca="false">C68+1</f>
+        <v>612</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <f aca="false">C69+1</f>
+        <v>623</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <f aca="false">C70+1</f>
+        <v>633</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <f aca="false">C71+1</f>
+        <v>643</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <f aca="false">C72+1</f>
+        <v>653</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <f aca="false">C73+1</f>
+        <v>664</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <f aca="false">C74+1</f>
+        <v>675</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>